--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1997.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1997.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.163538866152912</v>
+        <v>0.7706114053726196</v>
       </c>
       <c r="B1">
-        <v>2.199587616984614</v>
+        <v>2.694979667663574</v>
       </c>
       <c r="C1">
-        <v>8.261643833000001</v>
+        <v>7.751698017120361</v>
       </c>
       <c r="D1">
-        <v>2.602146075424299</v>
+        <v>2.292196273803711</v>
       </c>
       <c r="E1">
-        <v>1.224899713725982</v>
+        <v>1.505246877670288</v>
       </c>
     </row>
   </sheetData>
